--- a/Results/coefficients_TSP.xlsx
+++ b/Results/coefficients_TSP.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="34">
   <si>
     <t>Row</t>
   </si>
@@ -135,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -159,11 +159,37 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -181,6 +207,32 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,13 +253,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="41" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -218,7 +270,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="41" t="s">
         <v>32</v>
       </c>
       <c r="E2">
@@ -235,7 +287,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="41" t="s">
         <v>33</v>
       </c>
       <c r="E3">
